--- a/medicine/Psychotrope/Maupin_(écrivain_agronome)/Maupin_(écrivain_agronome).xlsx
+++ b/medicine/Psychotrope/Maupin_(écrivain_agronome)/Maupin_(écrivain_agronome).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Maupin_(%C3%A9crivain_agronome)</t>
+          <t>Maupin_(écrivain_agronome)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maupin, écrivain et agronome français du XVIIIe siècle, avait été valet de chambre de la reine. On ignore l'époque de sa mort.
 Il a attaché son nom à un grand nombre d'ouvrages sur l'agriculture :
@@ -532,7 +544,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maupin_(%C3%A9crivain_agronome)</t>
+          <t>Maupin_(écrivain_agronome)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -550,7 +562,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">« Maupin (écrivain agronome) », dans Louis-Gabriel Michaud, Biographie universelle ancienne et moderne : histoire par ordre alphabétique de la vie publique et privée de tous les hommes avec la collaboration de plus de 300 savants et littérateurs français ou étrangers, 2e édition, 1843-1865 [détail de l’édition]
  Portail de la vigne et du vin   Portail du XVIIIe siècle   Portail de l’histoire de la zoologie et de la botanique                   </t>
